--- a/ConfigXPS_10_All_new.xlsx
+++ b/ConfigXPS_10_All_new.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454FFDCF-9642-4F47-AB62-BCB9E5E4C233}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD5117F-1B3A-4D9D-B054-94C12A9F9A4F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="3800" windowHeight="750" tabRatio="720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="3800" windowHeight="750" tabRatio="720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Settings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="274">
   <si>
     <t>Plot Settings</t>
   </si>
@@ -803,9 +803,6 @@
     <t>Zn2p</t>
   </si>
   <si>
-    <t>CC-A.xlsx</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
@@ -816,6 +813,39 @@
   </si>
   <si>
     <t>Legend Help</t>
+  </si>
+  <si>
+    <t>CC-A.xlsx, CC-B.xlsx</t>
+  </si>
+  <si>
+    <t>Sample 10:Carborane</t>
+  </si>
+  <si>
+    <t>SAMPLE 10: Carborane</t>
+  </si>
+  <si>
+    <t>Sample 10: Carborane</t>
+  </si>
+  <si>
+    <t>XPS Others\Adam Marsh Carborane\Analysis</t>
+  </si>
+  <si>
+    <t>B1s</t>
+  </si>
+  <si>
+    <t>B$^2$-B</t>
+  </si>
+  <si>
+    <t>B-B-C</t>
+  </si>
+  <si>
+    <t>B-C-B</t>
+  </si>
+  <si>
+    <t>O 1s</t>
+  </si>
+  <si>
+    <t>p-carbo_181_1.xlsx, p-carbo_181_2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1748,6 +1778,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1777,10 +1811,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2062,13 +2092,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2076,20 +2106,20 @@
     <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6328125" customWidth="1"/>
     <col min="3" max="7" width="28.1796875" customWidth="1"/>
-    <col min="8" max="11" width="27.90625" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" customWidth="1"/>
-    <col min="13" max="13" width="98.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="27.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" customWidth="1"/>
+    <col min="14" max="14" width="98.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="60"/>
       <c r="B2" s="119"/>
       <c r="C2" s="67" t="s">
@@ -2119,8 +2149,11 @@
       <c r="K2" s="65" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L2" s="65" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
@@ -2154,8 +2187,11 @@
       <c r="K3" s="78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="L3" s="78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="75" t="s">
         <v>190</v>
       </c>
@@ -2171,8 +2207,9 @@
       <c r="I4" s="63"/>
       <c r="J4" s="68"/>
       <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="L4" s="68"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="61"/>
       <c r="B5" s="120"/>
       <c r="C5" s="63"/>
@@ -2184,8 +2221,9 @@
       <c r="I5" s="63"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L5" s="63"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="62"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -2197,8 +2235,9 @@
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="85" t="s">
         <v>152</v>
       </c>
@@ -2230,15 +2269,18 @@
       <c r="K7" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="L7" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="N7" s="89" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="85"/>
       <c r="B8" s="121"/>
       <c r="C8" s="86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" s="92" t="s">
         <v>196</v>
@@ -2264,17 +2306,20 @@
       <c r="K8" s="90" t="s">
         <v>249</v>
       </c>
-      <c r="M8" s="90" t="s">
+      <c r="L8" s="90" t="s">
+        <v>267</v>
+      </c>
+      <c r="N8" s="90" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="85" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="86"/>
       <c r="C9" s="86" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="90" t="s">
         <v>182</v>
@@ -2298,13 +2343,16 @@
         <v>246</v>
       </c>
       <c r="K9" s="90" t="s">
-        <v>259</v>
-      </c>
-      <c r="M9" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="L9" s="90" t="s">
+        <v>273</v>
+      </c>
+      <c r="N9" s="90" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="62"/>
       <c r="B10" s="62"/>
       <c r="C10" s="69"/>
@@ -2316,11 +2364,12 @@
       <c r="I10" s="69"/>
       <c r="J10" s="69"/>
       <c r="K10" s="69"/>
-      <c r="M10" s="90" t="s">
+      <c r="L10" s="69"/>
+      <c r="N10" s="90" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="72"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
@@ -2332,10 +2381,11 @@
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
       <c r="K11" s="73"/>
-    </row>
-    <row r="12" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L11" s="73"/>
+    </row>
+    <row r="12" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B12" s="122"/>
       <c r="C12" s="84"/>
@@ -2347,11 +2397,12 @@
       <c r="I12" s="84"/>
       <c r="J12" s="84"/>
       <c r="K12" s="84"/>
-      <c r="M12" s="88" t="s">
+      <c r="L12" s="84"/>
+      <c r="N12" s="88" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="74" t="s">
         <v>22</v>
       </c>
@@ -2383,12 +2434,15 @@
       <c r="K13" s="80" t="b">
         <v>1</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="90" t="s">
+      <c r="L13" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="90" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="62" t="s">
         <v>23</v>
       </c>
@@ -2420,12 +2474,15 @@
       <c r="K14" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="90" t="s">
+      <c r="L14" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="90" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="62" t="s">
         <v>153</v>
       </c>
@@ -2457,12 +2514,15 @@
       <c r="K15" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="90" t="s">
+      <c r="L15" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="90" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="62" t="s">
         <v>24</v>
       </c>
@@ -2492,14 +2552,17 @@
         <v>1</v>
       </c>
       <c r="K16" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="90" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="62" t="s">
         <v>25</v>
       </c>
@@ -2531,11 +2594,14 @@
       <c r="K17" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="M17" s="90" t="s">
+      <c r="L17" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="90" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="62"/>
       <c r="B18" s="62"/>
       <c r="C18" s="69"/>
@@ -2547,9 +2613,10 @@
       <c r="I18" s="69"/>
       <c r="J18" s="69"/>
       <c r="K18" s="69"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L18" s="69"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="62" t="s">
         <v>26</v>
       </c>
@@ -2581,11 +2648,14 @@
       <c r="K19" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="M19" s="90" t="s">
+      <c r="L19" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="90" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="62" t="s">
         <v>27</v>
       </c>
@@ -2617,12 +2687,15 @@
       <c r="K20" s="69">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="87" t="s">
+      <c r="L20" s="69">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="87" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="62"/>
       <c r="B21" s="62"/>
       <c r="C21" s="69"/>
@@ -2634,9 +2707,10 @@
       <c r="I21" s="69"/>
       <c r="J21" s="69"/>
       <c r="K21" s="69"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L21" s="69"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="62" t="s">
         <v>38</v>
       </c>
@@ -2668,12 +2742,15 @@
       <c r="K22" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="88" t="s">
+      <c r="L22" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="88" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="62" t="s">
         <v>28</v>
       </c>
@@ -2705,11 +2782,14 @@
       <c r="K23" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="M23" s="90" t="s">
+      <c r="L23" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="N23" s="90" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="62"/>
       <c r="B24" s="62"/>
       <c r="C24" s="62"/>
@@ -2721,11 +2801,12 @@
       <c r="I24" s="62"/>
       <c r="J24" s="62"/>
       <c r="K24" s="62"/>
-      <c r="M24" s="90" t="s">
+      <c r="L24" s="62"/>
+      <c r="N24" s="90" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="62" t="s">
         <v>222</v>
       </c>
@@ -2757,11 +2838,14 @@
       <c r="K25" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="M25" s="90" t="s">
+      <c r="L25" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="90" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="62" t="s">
         <v>161</v>
       </c>
@@ -2793,8 +2877,11 @@
       <c r="K26" s="69">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L26" s="69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="64" t="s">
         <v>166</v>
       </c>
@@ -2826,11 +2913,14 @@
       <c r="K27" s="71">
         <v>9</v>
       </c>
-      <c r="M27" s="88" t="s">
+      <c r="L27" s="71">
+        <v>10</v>
+      </c>
+      <c r="N27" s="88" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="79"/>
       <c r="B28" s="79"/>
       <c r="C28" s="79"/>
@@ -2842,11 +2932,12 @@
       <c r="I28" s="79"/>
       <c r="J28" s="79"/>
       <c r="K28" s="79"/>
-      <c r="M28" s="88" t="s">
+      <c r="L28" s="79"/>
+      <c r="N28" s="88" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="83" t="s">
         <v>41</v>
       </c>
@@ -2860,8 +2951,9 @@
       <c r="I29" s="91"/>
       <c r="J29" s="91"/>
       <c r="K29" s="91"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L29" s="91"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="74" t="s">
         <v>29</v>
       </c>
@@ -2893,11 +2985,14 @@
       <c r="K30" s="80" t="b">
         <v>1</v>
       </c>
-      <c r="M30" s="86" t="s">
+      <c r="L30" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="86" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="62" t="s">
         <v>30</v>
       </c>
@@ -2929,11 +3024,14 @@
       <c r="K31" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="86" t="s">
+      <c r="L31" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="86" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="62" t="s">
         <v>32</v>
       </c>
@@ -2965,11 +3063,14 @@
       <c r="K32" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="123" t="s">
+      <c r="L32" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" s="123" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="64" t="s">
         <v>34</v>
       </c>
@@ -3001,11 +3102,14 @@
       <c r="K33" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="M33" s="123" t="s">
+      <c r="L33" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="123" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="79"/>
       <c r="B34" s="79"/>
       <c r="C34" s="81"/>
@@ -3017,11 +3121,12 @@
       <c r="I34" s="81"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
-      <c r="M34" s="123" t="s">
+      <c r="L34" s="81"/>
+      <c r="N34" s="123" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="83" t="s">
         <v>40</v>
       </c>
@@ -3035,11 +3140,12 @@
       <c r="I35" s="84"/>
       <c r="J35" s="84"/>
       <c r="K35" s="84"/>
-      <c r="M35" s="123" t="s">
+      <c r="L35" s="84"/>
+      <c r="N35" s="123" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="74" t="s">
         <v>36</v>
       </c>
@@ -3071,11 +3177,14 @@
       <c r="K36" s="80" t="b">
         <v>1</v>
       </c>
-      <c r="M36" s="123" t="s">
+      <c r="L36" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" s="123" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="64" t="s">
         <v>37</v>
       </c>
@@ -3107,11 +3216,14 @@
       <c r="K37" s="71">
         <v>100</v>
       </c>
-      <c r="M37" s="124" t="s">
+      <c r="L37" s="71">
+        <v>100</v>
+      </c>
+      <c r="N37" s="124" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="79"/>
       <c r="B38" s="79"/>
       <c r="C38" s="79"/>
@@ -3123,11 +3235,12 @@
       <c r="I38" s="79"/>
       <c r="J38" s="79"/>
       <c r="K38" s="79"/>
-      <c r="M38" s="88" t="s">
+      <c r="L38" s="79"/>
+      <c r="N38" s="88" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="125" t="s">
         <v>88</v>
       </c>
@@ -3141,8 +3254,9 @@
       <c r="I39" s="82"/>
       <c r="J39" s="82"/>
       <c r="K39" s="82"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L39" s="82"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="126" t="s">
         <v>137</v>
       </c>
@@ -3174,11 +3288,14 @@
       <c r="K40" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="M40" s="88" t="s">
+      <c r="L40" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="88" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="62" t="s">
         <v>138</v>
       </c>
@@ -3210,11 +3327,14 @@
       <c r="K41" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="M41" s="88" t="s">
+      <c r="L41" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="N41" s="88" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="62" t="s">
         <v>140</v>
       </c>
@@ -3246,11 +3366,14 @@
       <c r="K42" s="69">
         <v>0</v>
       </c>
-      <c r="M42" s="90" t="s">
+      <c r="L42" s="69">
+        <v>0</v>
+      </c>
+      <c r="N42" s="90" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="62" t="s">
         <v>139</v>
       </c>
@@ -3282,11 +3405,14 @@
       <c r="K43" s="69">
         <v>0.94</v>
       </c>
-      <c r="M43" s="90" t="s">
+      <c r="L43" s="69">
+        <v>0.94</v>
+      </c>
+      <c r="N43" s="90" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="62" t="s">
         <v>142</v>
       </c>
@@ -3318,11 +3444,14 @@
       <c r="K44" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="M44" s="90" t="s">
+      <c r="L44" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" s="90" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="62" t="s">
         <v>141</v>
       </c>
@@ -3354,11 +3483,14 @@
       <c r="K45" s="69">
         <v>2</v>
       </c>
-      <c r="M45" s="90" t="s">
+      <c r="L45" s="69">
+        <v>2</v>
+      </c>
+      <c r="N45" s="90" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="62"/>
       <c r="B46" s="129"/>
       <c r="C46" s="62"/>
@@ -3370,8 +3502,9 @@
       <c r="I46" s="62"/>
       <c r="J46" s="69"/>
       <c r="K46" s="69"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L46" s="69"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="62" t="s">
         <v>221</v>
       </c>
@@ -3403,8 +3536,11 @@
       <c r="K47" s="69">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L47" s="69">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="62" t="s">
         <v>218</v>
       </c>
@@ -3436,8 +3572,11 @@
       <c r="K48" s="69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L48" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="72" t="s">
         <v>238</v>
       </c>
@@ -3469,8 +3608,11 @@
       <c r="K49" s="73">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L49" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="64" t="s">
         <v>219</v>
       </c>
@@ -3502,8 +3644,11 @@
       <c r="K50" s="73">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L50" s="73">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="64" t="s">
         <v>220</v>
       </c>
@@ -3535,14 +3680,17 @@
       <c r="K51" s="71">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="M54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="M55">
+      <c r="L51" s="71">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N55">
         <v>1</v>
       </c>
     </row>
@@ -3554,11 +3702,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9047575D-5B49-427A-B196-4CCAF43D03AB}">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH33" sqref="AH33:AI33"/>
+      <selection pane="bottomLeft" activeCell="AN38" sqref="AN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3566,68 +3714,74 @@
     <col min="1" max="1" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:40" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="131" t="s">
+    <row r="2" spans="1:40" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="131" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="131" t="s">
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="133" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="134" t="s">
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="134" t="s">
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="134" t="s">
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="134" t="s">
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="136" t="s">
         <v>193</v>
       </c>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="131" t="s">
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="133" t="s">
         <v>224</v>
       </c>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="131" t="s">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="133" t="s">
         <v>248</v>
       </c>
-      <c r="AH2" s="132"/>
-      <c r="AI2" s="132"/>
-      <c r="AJ2" s="133"/>
-    </row>
-    <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="133" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="135"/>
+    </row>
+    <row r="3" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -3736,8 +3890,20 @@
       <c r="AJ3" s="130" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -3846,8 +4012,20 @@
       <c r="AJ4" s="14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>95.1</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>130</v>
+      </c>
+      <c r="AN4" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>202</v>
       </c>
@@ -3956,8 +4134,20 @@
       <c r="AJ5" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK5" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>80</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>92</v>
+      </c>
+      <c r="AN5" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -4066,8 +4256,20 @@
       <c r="AJ6" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>876</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>895</v>
+      </c>
+      <c r="AN6" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -4176,8 +4378,20 @@
       <c r="AJ7" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL7" s="9">
+        <v>95.1</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>130</v>
+      </c>
+      <c r="AN7" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
@@ -4286,8 +4500,20 @@
       <c r="AJ8" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL8" s="9">
+        <v>875</v>
+      </c>
+      <c r="AM8" s="9">
+        <v>920</v>
+      </c>
+      <c r="AN8" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
@@ -4396,8 +4622,20 @@
       <c r="AJ9" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL9" s="9">
+        <v>830</v>
+      </c>
+      <c r="AM9" s="9">
+        <v>842</v>
+      </c>
+      <c r="AN9" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>73</v>
       </c>
@@ -4506,8 +4744,20 @@
       <c r="AJ10" s="14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL10" s="9">
+        <v>275</v>
+      </c>
+      <c r="AM10" s="9">
+        <v>295</v>
+      </c>
+      <c r="AN10" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
@@ -4616,8 +4866,20 @@
       <c r="AJ11" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL11" s="9">
+        <v>828</v>
+      </c>
+      <c r="AM11" s="9">
+        <v>860</v>
+      </c>
+      <c r="AN11" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>143</v>
       </c>
@@ -4726,8 +4988,20 @@
       <c r="AJ12" s="14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>95.1</v>
+      </c>
+      <c r="AM12" s="9">
+        <v>130</v>
+      </c>
+      <c r="AN12" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
@@ -4836,8 +5110,20 @@
       <c r="AJ13" s="14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL13" s="9">
+        <v>365</v>
+      </c>
+      <c r="AM13" s="9">
+        <v>375</v>
+      </c>
+      <c r="AN13" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -4946,8 +5232,20 @@
       <c r="AJ14" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL14" s="9">
+        <v>177.5</v>
+      </c>
+      <c r="AM14" s="9">
+        <v>190</v>
+      </c>
+      <c r="AN14" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>237</v>
       </c>
@@ -5056,8 +5354,20 @@
       <c r="AJ15" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK15" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL15" s="9">
+        <v>152</v>
+      </c>
+      <c r="AM15" s="9">
+        <v>167</v>
+      </c>
+      <c r="AN15" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
@@ -5166,8 +5476,20 @@
       <c r="AJ16" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL16" s="9">
+        <v>128.9</v>
+      </c>
+      <c r="AM16" s="9">
+        <v>137.9</v>
+      </c>
+      <c r="AN16" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>74</v>
       </c>
@@ -5276,8 +5598,20 @@
       <c r="AJ17" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL17" s="9">
+        <v>451.1</v>
+      </c>
+      <c r="AM17" s="9">
+        <v>503</v>
+      </c>
+      <c r="AN17" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>14</v>
       </c>
@@ -5386,8 +5720,20 @@
       <c r="AJ18" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL18" s="9">
+        <v>263</v>
+      </c>
+      <c r="AM18" s="9">
+        <v>293</v>
+      </c>
+      <c r="AN18" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
@@ -5496,8 +5842,20 @@
       <c r="AJ19" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL19" s="9">
+        <v>700.1</v>
+      </c>
+      <c r="AM19" s="9">
+        <v>739.9</v>
+      </c>
+      <c r="AN19" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -5606,8 +5964,20 @@
       <c r="AJ20" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL20" s="9">
+        <v>775</v>
+      </c>
+      <c r="AM20" s="9">
+        <v>805</v>
+      </c>
+      <c r="AN20" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>120</v>
       </c>
@@ -5716,8 +6086,20 @@
       <c r="AJ21" s="14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK21" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL21" s="9">
+        <v>569</v>
+      </c>
+      <c r="AM21" s="9">
+        <v>592</v>
+      </c>
+      <c r="AN21" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>89</v>
       </c>
@@ -5826,8 +6208,20 @@
       <c r="AJ22" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK22" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL22" s="9">
+        <v>637</v>
+      </c>
+      <c r="AM22" s="9">
+        <v>661</v>
+      </c>
+      <c r="AN22" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>17</v>
       </c>
@@ -5936,8 +6330,20 @@
       <c r="AJ23" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL23" s="9">
+        <v>857.5</v>
+      </c>
+      <c r="AM23" s="9">
+        <v>877</v>
+      </c>
+      <c r="AN23" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>258</v>
       </c>
@@ -6046,8 +6452,20 @@
       <c r="AJ24" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK24" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL24" s="9">
+        <v>1016</v>
+      </c>
+      <c r="AM24" s="9">
+        <v>1051</v>
+      </c>
+      <c r="AN24" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>86</v>
       </c>
@@ -6156,8 +6574,20 @@
       <c r="AJ25" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL25" s="9">
+        <v>1110</v>
+      </c>
+      <c r="AM25" s="9">
+        <v>1150</v>
+      </c>
+      <c r="AN25" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>87</v>
       </c>
@@ -6266,8 +6696,20 @@
       <c r="AJ26" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL26" s="9">
+        <v>1110.0999999999999</v>
+      </c>
+      <c r="AM26" s="9">
+        <v>1125</v>
+      </c>
+      <c r="AN26" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>132</v>
       </c>
@@ -6376,8 +6818,20 @@
       <c r="AJ27" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK27" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL27" s="9">
+        <v>127</v>
+      </c>
+      <c r="AM27" s="9">
+        <v>140</v>
+      </c>
+      <c r="AN27" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -6486,8 +6940,20 @@
       <c r="AJ28" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK28" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL28" s="9">
+        <v>97</v>
+      </c>
+      <c r="AM28" s="9">
+        <v>108</v>
+      </c>
+      <c r="AN28" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>183</v>
       </c>
@@ -6596,8 +7062,20 @@
       <c r="AJ29" s="14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK29" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL29" s="9">
+        <v>68</v>
+      </c>
+      <c r="AM29" s="9">
+        <v>80</v>
+      </c>
+      <c r="AN29" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>144</v>
       </c>
@@ -6706,8 +7184,20 @@
       <c r="AJ30" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK30" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL30" s="9">
+        <v>164</v>
+      </c>
+      <c r="AM30" s="9">
+        <v>174.5</v>
+      </c>
+      <c r="AN30" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>18</v>
       </c>
@@ -6816,8 +7306,20 @@
       <c r="AJ31" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL31" s="9">
+        <v>528</v>
+      </c>
+      <c r="AM31" s="9">
+        <v>538</v>
+      </c>
+      <c r="AN31" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>113</v>
       </c>
@@ -6926,8 +7428,20 @@
       <c r="AJ32" s="14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK32" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL32" s="9">
+        <v>1065</v>
+      </c>
+      <c r="AM32" s="9">
+        <v>1075</v>
+      </c>
+      <c r="AN32" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>19</v>
       </c>
@@ -7036,8 +7550,20 @@
       <c r="AJ33" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL33" s="9">
+        <v>395</v>
+      </c>
+      <c r="AM33" s="9">
+        <v>408</v>
+      </c>
+      <c r="AN33" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>20</v>
       </c>
@@ -7146,238 +7672,397 @@
       <c r="AJ34" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK34" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL34" s="9">
+        <v>281</v>
+      </c>
+      <c r="AM34" s="9">
+        <v>291</v>
+      </c>
+      <c r="AN34" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" s="9">
+        <v>185</v>
+      </c>
+      <c r="C35" s="9">
+        <v>195</v>
+      </c>
+      <c r="D35" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F35" s="9">
+        <v>185</v>
+      </c>
+      <c r="G35" s="9">
+        <v>195</v>
+      </c>
+      <c r="H35" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" s="9">
+        <v>185</v>
+      </c>
+      <c r="K35" s="9">
+        <v>195</v>
+      </c>
+      <c r="L35" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="N35" s="9">
+        <v>185</v>
+      </c>
+      <c r="O35" s="9">
+        <v>195</v>
+      </c>
+      <c r="P35" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="R35" s="9">
+        <v>185</v>
+      </c>
+      <c r="S35" s="9">
+        <v>195</v>
+      </c>
+      <c r="T35" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="U35" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="V35" s="9">
+        <v>185</v>
+      </c>
+      <c r="W35" s="9">
+        <v>195</v>
+      </c>
+      <c r="X35" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>185</v>
+      </c>
+      <c r="AA35" s="9">
+        <v>195</v>
+      </c>
+      <c r="AB35" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD35" s="9">
+        <v>185</v>
+      </c>
+      <c r="AE35" s="9">
+        <v>195</v>
+      </c>
+      <c r="AF35" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH35" s="9">
+        <v>185</v>
+      </c>
+      <c r="AI35" s="9">
+        <v>195</v>
+      </c>
+      <c r="AJ35" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="AL35" s="9">
+        <v>185</v>
+      </c>
+      <c r="AM35" s="9">
+        <v>193</v>
+      </c>
+      <c r="AN35" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B36" s="9">
         <v>680</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C36" s="9">
         <v>692</v>
       </c>
-      <c r="D35" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="13" t="s">
+      <c r="D36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>680</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G36" s="9">
         <v>692</v>
       </c>
-      <c r="H35" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="13" t="s">
+      <c r="H36" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J36" s="9">
         <v>680</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K36" s="9">
         <v>691.5</v>
       </c>
-      <c r="L35" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M35" s="13" t="s">
+      <c r="L36" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N36" s="9">
         <v>680</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O36" s="9">
         <v>691.5</v>
       </c>
-      <c r="P35" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="13" t="s">
+      <c r="P36" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="R35" s="9">
+      <c r="R36" s="9">
         <v>690</v>
       </c>
-      <c r="S35" s="9">
+      <c r="S36" s="9">
         <v>710</v>
       </c>
-      <c r="T35" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="U35" s="13" t="s">
+      <c r="T36" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U36" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="V35" s="9">
+      <c r="V36" s="9">
         <v>690</v>
       </c>
-      <c r="W35" s="9">
+      <c r="W36" s="9">
         <v>710</v>
       </c>
-      <c r="X35" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="13" t="s">
+      <c r="X36" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="Z35" s="9">
+      <c r="Z36" s="9">
         <v>682</v>
       </c>
-      <c r="AA35" s="9">
+      <c r="AA36" s="9">
         <v>692</v>
       </c>
-      <c r="AB35" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="13" t="s">
+      <c r="AB36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="AD35" s="9">
+      <c r="AD36" s="9">
         <v>680</v>
       </c>
-      <c r="AE35" s="9">
+      <c r="AE36" s="9">
         <v>691.5</v>
       </c>
-      <c r="AF35" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG35" s="13" t="s">
+      <c r="AF36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="AH35" s="9">
+      <c r="AH36" s="9">
         <v>680</v>
       </c>
-      <c r="AI35" s="9">
+      <c r="AI36" s="9">
         <v>691.5</v>
       </c>
-      <c r="AJ35" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="15" t="s">
+      <c r="AJ36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL36" s="9">
+        <v>680</v>
+      </c>
+      <c r="AM36" s="9">
+        <v>691.5</v>
+      </c>
+      <c r="AN36" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B37" s="16">
         <v>-1.4</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C37" s="16">
         <v>4</v>
       </c>
-      <c r="D36" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="15" t="s">
+      <c r="D37" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F37" s="16">
         <v>-1.4</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G37" s="16">
         <v>4</v>
       </c>
-      <c r="H36" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="15" t="s">
+      <c r="H37" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J37" s="16">
         <v>-1.4</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K37" s="16">
         <v>4</v>
       </c>
-      <c r="L36" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M36" s="15" t="s">
+      <c r="L37" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N37" s="16">
         <v>-1.7</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O37" s="16">
         <v>4</v>
       </c>
-      <c r="P36" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="15" t="s">
+      <c r="P37" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R36" s="16">
+      <c r="R37" s="16">
         <v>-1.4</v>
       </c>
-      <c r="S36" s="16">
+      <c r="S37" s="16">
         <v>4</v>
       </c>
-      <c r="T36" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="U36" s="15" t="s">
+      <c r="T37" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="U37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="V36" s="16">
+      <c r="V37" s="16">
         <v>-1.4</v>
       </c>
-      <c r="W36" s="16">
+      <c r="W37" s="16">
         <v>4</v>
       </c>
-      <c r="X36" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="15" t="s">
+      <c r="X37" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Z36" s="16">
+      <c r="Z37" s="16">
         <v>-1.4</v>
       </c>
-      <c r="AA36" s="16">
+      <c r="AA37" s="16">
         <v>4</v>
       </c>
-      <c r="AB36" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="15" t="s">
+      <c r="AB37" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AD36" s="16">
+      <c r="AD37" s="16">
         <v>-1.4</v>
       </c>
-      <c r="AE36" s="16">
+      <c r="AE37" s="16">
         <v>4</v>
       </c>
-      <c r="AF36" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="15" t="s">
+      <c r="AF37" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AH36" s="16">
+      <c r="AH37" s="16">
         <v>-1.4</v>
       </c>
-      <c r="AI36" s="16">
+      <c r="AI37" s="16">
         <v>4</v>
       </c>
-      <c r="AJ36" s="17" t="b">
+      <c r="AJ37" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL37" s="16">
+        <v>-1.4</v>
+      </c>
+      <c r="AM37" s="16">
+        <v>4</v>
+      </c>
+      <c r="AN37" s="17" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="U2:X2"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="U2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7386,11 +8071,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3022DE-CD8A-4767-87DD-14E977B1284B}">
-  <dimension ref="A1:AJ85"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH36" sqref="AH36"/>
+    <sheetView topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7413,72 +8098,81 @@
     <col min="26" max="26" width="24.90625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="24.90625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9" customWidth="1"/>
+    <col min="40" max="40" width="5.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:40" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:36" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="138" t="s">
+    <row r="2" spans="1:40" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="138" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="138" t="s">
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="139" t="s">
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="138" t="s">
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="138" t="s">
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="138" t="s">
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="140" t="s">
         <v>194</v>
       </c>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="138" t="s">
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="140" t="s">
         <v>224</v>
       </c>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="138" t="s">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="140" t="s">
         <v>248</v>
       </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="139"/>
-      <c r="AJ2" s="140"/>
-    </row>
-    <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="141"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="140" t="s">
+        <v>266</v>
+      </c>
+      <c r="AL2" s="141"/>
+      <c r="AM2" s="141"/>
+      <c r="AN2" s="142"/>
+    </row>
+    <row r="3" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="43" t="s">
         <v>63</v>
       </c>
@@ -7587,8 +8281,20 @@
       <c r="AJ3" s="45" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK3" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN3" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46">
         <v>2.6</v>
       </c>
@@ -7697,8 +8403,20 @@
       <c r="AJ4" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK4" s="46">
+        <v>2.6</v>
+      </c>
+      <c r="AL4" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM4" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46">
         <v>0.6</v>
       </c>
@@ -7807,8 +8525,20 @@
       <c r="AJ5" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK5" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="AL5" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM5" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46">
         <v>5</v>
       </c>
@@ -7917,8 +8647,20 @@
       <c r="AJ6" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK6" s="46">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM6" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="46">
         <v>9.8000000000000007</v>
       </c>
@@ -8027,8 +8769,20 @@
       <c r="AJ7" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK7" s="46">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AL7" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46">
         <v>12</v>
       </c>
@@ -8137,8 +8891,20 @@
       <c r="AJ8" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK8" s="46">
+        <v>12</v>
+      </c>
+      <c r="AL8" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="46">
         <v>54.1</v>
       </c>
@@ -8247,8 +9013,20 @@
       <c r="AJ9" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK9" s="46">
+        <v>54.1</v>
+      </c>
+      <c r="AL9" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="46">
         <v>55.5</v>
       </c>
@@ -8357,8 +9135,20 @@
       <c r="AJ10" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK10" s="46">
+        <v>55.5</v>
+      </c>
+      <c r="AL10" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="46">
         <v>53.1</v>
       </c>
@@ -8467,8 +9257,20 @@
       <c r="AJ11" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK11" s="46">
+        <v>53.1</v>
+      </c>
+      <c r="AL11" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" s="46">
         <v>75</v>
       </c>
@@ -8577,8 +9379,20 @@
       <c r="AJ12" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK12" s="47">
+        <v>101.5</v>
+      </c>
+      <c r="AL12" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM12" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" s="46">
         <v>79</v>
       </c>
@@ -8687,8 +9501,20 @@
       <c r="AJ13" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK13" s="47">
+        <v>102</v>
+      </c>
+      <c r="AL13" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM13" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="47">
         <v>101.5</v>
       </c>
@@ -8797,8 +9623,20 @@
       <c r="AJ14" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK14" s="47">
+        <v>111.5</v>
+      </c>
+      <c r="AL14" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM14" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="47">
         <v>111.5</v>
       </c>
@@ -8907,8 +9745,20 @@
       <c r="AJ15" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK15" s="47">
+        <v>131.6</v>
+      </c>
+      <c r="AL15" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="47">
         <v>132.1</v>
       </c>
@@ -9017,8 +9867,20 @@
       <c r="AJ16" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK16" s="47">
+        <v>133.1</v>
+      </c>
+      <c r="AL16" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM16" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="47">
         <v>133.15</v>
       </c>
@@ -9127,8 +9989,20 @@
       <c r="AJ17" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK17" s="47">
+        <v>157</v>
+      </c>
+      <c r="AL17" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM17" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="46">
         <v>159.19999999999999</v>
       </c>
@@ -9237,8 +10111,20 @@
       <c r="AJ18" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK18" s="47">
+        <v>159</v>
+      </c>
+      <c r="AL18" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM18" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="46">
         <v>168</v>
       </c>
@@ -9347,8 +10233,20 @@
       <c r="AJ19" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK19" s="46">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="AL19" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM19" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="46">
         <v>181.1</v>
       </c>
@@ -9457,8 +10355,20 @@
       <c r="AJ20" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK20" s="46">
+        <v>169</v>
+      </c>
+      <c r="AL20" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="46">
         <v>184.6</v>
       </c>
@@ -9567,8 +10477,20 @@
       <c r="AJ21" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK21" s="46">
+        <v>182.1</v>
+      </c>
+      <c r="AL21" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM21" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="47">
         <v>268</v>
       </c>
@@ -9677,8 +10599,20 @@
       <c r="AJ22" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK22" s="46">
+        <v>184.6</v>
+      </c>
+      <c r="AL22" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM22" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="47">
         <v>278</v>
       </c>
@@ -9787,8 +10721,20 @@
       <c r="AJ23" s="35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK23" s="46">
+        <v>188.4</v>
+      </c>
+      <c r="AL23" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="47">
         <v>267.5</v>
       </c>
@@ -9897,8 +10843,20 @@
       <c r="AJ24" s="35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK24" s="46">
+        <v>189.2</v>
+      </c>
+      <c r="AL24" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="AM24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="47">
         <v>277.89999999999998</v>
       </c>
@@ -10007,8 +10965,20 @@
       <c r="AJ25" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK25" s="46">
+        <v>189.9</v>
+      </c>
+      <c r="AL25" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="47">
         <v>269.3</v>
       </c>
@@ -10117,8 +11087,20 @@
       <c r="AJ26" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK26" s="47">
+        <v>268</v>
+      </c>
+      <c r="AL26" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM26" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="47">
         <v>279.60000000000002</v>
       </c>
@@ -10227,8 +11209,20 @@
       <c r="AJ27" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK27" s="47">
+        <v>278</v>
+      </c>
+      <c r="AL27" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM27" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="47">
         <v>279.5</v>
       </c>
@@ -10337,8 +11331,20 @@
       <c r="AJ28" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK28" s="47">
+        <v>267.5</v>
+      </c>
+      <c r="AL28" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM28" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="47">
         <v>284.8</v>
       </c>
@@ -10447,8 +11453,20 @@
       <c r="AJ29" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK29" s="47">
+        <v>277.89999999999998</v>
+      </c>
+      <c r="AL29" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM29" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="47">
         <v>288.7</v>
       </c>
@@ -10557,8 +11575,20 @@
       <c r="AJ30" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK30" s="47">
+        <v>269.3</v>
+      </c>
+      <c r="AL30" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM30" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="47">
         <v>289.10000000000002</v>
       </c>
@@ -10667,8 +11697,20 @@
       <c r="AJ31" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK31" s="47">
+        <v>279.60000000000002</v>
+      </c>
+      <c r="AL31" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM31" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="47">
         <v>462</v>
       </c>
@@ -10777,8 +11819,20 @@
       <c r="AJ32" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK32" s="47">
+        <v>279.5</v>
+      </c>
+      <c r="AL32" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM32" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="47">
         <v>483</v>
       </c>
@@ -10887,8 +11941,20 @@
       <c r="AJ33" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK33" s="47">
+        <v>284.8</v>
+      </c>
+      <c r="AL33" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM33" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="47">
         <v>497</v>
       </c>
@@ -10997,8 +12063,20 @@
       <c r="AJ34" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK34" s="47">
+        <v>288.7</v>
+      </c>
+      <c r="AL34" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM34" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="47">
         <v>530.5</v>
       </c>
@@ -11107,8 +12185,20 @@
       <c r="AJ35" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK35" s="47">
+        <v>289.10000000000002</v>
+      </c>
+      <c r="AL35" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM35" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="47">
         <v>528.20000000000005</v>
       </c>
@@ -11217,8 +12307,20 @@
       <c r="AJ36" s="54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK36" s="47">
+        <v>293</v>
+      </c>
+      <c r="AL36" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM36" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37" s="47">
         <v>528.70000000000005</v>
       </c>
@@ -11327,8 +12429,20 @@
       <c r="AJ37" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK37" s="47">
+        <v>295.5</v>
+      </c>
+      <c r="AL37" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM37" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="47">
         <v>529.20000000000005</v>
       </c>
@@ -11437,8 +12551,20 @@
       <c r="AJ38" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK38" s="47">
+        <v>399</v>
+      </c>
+      <c r="AL38" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM38" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="47">
         <v>530.29999999999995</v>
       </c>
@@ -11547,8 +12673,20 @@
       <c r="AJ39" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK39" s="47">
+        <v>402</v>
+      </c>
+      <c r="AL39" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM39" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="47">
         <v>532</v>
       </c>
@@ -11657,8 +12795,20 @@
       <c r="AJ40" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK40" s="47">
+        <v>462</v>
+      </c>
+      <c r="AL40" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM40" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41" s="47">
         <v>530.70000000000005</v>
       </c>
@@ -11767,8 +12917,20 @@
       <c r="AJ41" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK41" s="47">
+        <v>483</v>
+      </c>
+      <c r="AL41" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM41" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="47">
         <v>531.12</v>
       </c>
@@ -11877,8 +13039,20 @@
       <c r="AJ42" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK42" s="47">
+        <v>497</v>
+      </c>
+      <c r="AL42" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM42" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" s="47">
         <v>532.5</v>
       </c>
@@ -11987,8 +13161,20 @@
       <c r="AJ43" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK43" s="47">
+        <v>532</v>
+      </c>
+      <c r="AL43" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM43" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN43" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A44" s="47">
         <v>576</v>
       </c>
@@ -12097,8 +13283,20 @@
       <c r="AJ44" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK44" s="47">
+        <v>528.17999999999995</v>
+      </c>
+      <c r="AL44" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM44" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A45" s="47">
         <v>579.5</v>
       </c>
@@ -12207,8 +13405,20 @@
       <c r="AJ45" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK45" s="47">
+        <v>529.17999999999995</v>
+      </c>
+      <c r="AL45" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM45" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="47">
         <v>585.79999999999995</v>
       </c>
@@ -12317,8 +13527,20 @@
       <c r="AJ46" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK46" s="47">
+        <v>530.5</v>
+      </c>
+      <c r="AL46" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM46" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="47">
         <v>641.29999999999995</v>
       </c>
@@ -12427,8 +13649,20 @@
       <c r="AJ47" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK47" s="47">
+        <v>528.20000000000005</v>
+      </c>
+      <c r="AL47" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM47" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="47">
         <v>653</v>
       </c>
@@ -12537,8 +13771,20 @@
       <c r="AJ48" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK48" s="47">
+        <v>528.70000000000005</v>
+      </c>
+      <c r="AL48" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM48" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" s="47">
         <v>706.4</v>
       </c>
@@ -12647,8 +13893,20 @@
       <c r="AJ49" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK49" s="47">
+        <v>529.20000000000005</v>
+      </c>
+      <c r="AL49" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM49" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" s="47">
         <v>710.5</v>
       </c>
@@ -12757,8 +14015,20 @@
       <c r="AJ50" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK50" s="47">
+        <v>530.29999999999995</v>
+      </c>
+      <c r="AL50" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM50" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A51" s="47">
         <v>715</v>
       </c>
@@ -12867,8 +14137,20 @@
       <c r="AJ51" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK51" s="47">
+        <v>531.20000000000005</v>
+      </c>
+      <c r="AL51" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM51" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52" s="47">
         <v>719</v>
       </c>
@@ -12977,8 +14259,20 @@
       <c r="AJ52" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK52" s="47">
+        <v>530.70000000000005</v>
+      </c>
+      <c r="AL52" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM52" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A53" s="47">
         <v>724</v>
       </c>
@@ -13087,8 +14381,20 @@
       <c r="AJ53" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK53" s="47">
+        <v>531.12</v>
+      </c>
+      <c r="AL53" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM53" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="47">
         <v>779.5</v>
       </c>
@@ -13197,8 +14503,20 @@
       <c r="AJ54" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK54" s="47">
+        <v>532.5</v>
+      </c>
+      <c r="AL54" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM54" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="47">
         <v>789</v>
       </c>
@@ -13295,8 +14613,20 @@
       <c r="AJ55" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK55" s="47">
+        <v>532.5</v>
+      </c>
+      <c r="AL55" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM55" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN55" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="47">
         <v>786</v>
       </c>
@@ -13393,8 +14723,20 @@
       <c r="AJ56" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK56" s="47">
+        <v>576</v>
+      </c>
+      <c r="AL56" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM56" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN56" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" s="47">
         <v>794.8</v>
       </c>
@@ -13491,8 +14833,20 @@
       <c r="AJ57" s="22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK57" s="47">
+        <v>579.5</v>
+      </c>
+      <c r="AL57" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM57" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="47">
         <v>832.9</v>
       </c>
@@ -13589,8 +14943,20 @@
       <c r="AJ58" s="22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK58" s="47">
+        <v>585.79999999999995</v>
+      </c>
+      <c r="AL58" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM58" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="47">
         <v>835</v>
       </c>
@@ -13687,8 +15053,20 @@
       <c r="AJ59" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK59" s="47">
+        <v>641.29999999999995</v>
+      </c>
+      <c r="AL59" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM59" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN59" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="47">
         <v>837.9</v>
       </c>
@@ -13785,8 +15163,20 @@
       <c r="AJ60" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK60" s="47">
+        <v>653</v>
+      </c>
+      <c r="AL60" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM60" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN60" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A61" s="47">
         <v>849.5</v>
       </c>
@@ -13871,8 +15261,20 @@
       <c r="AJ61" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK61" s="47">
+        <v>707</v>
+      </c>
+      <c r="AL61" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM61" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A62" s="47">
         <v>850</v>
       </c>
@@ -13957,8 +15359,20 @@
       <c r="AJ62" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK62" s="47">
+        <v>710.5</v>
+      </c>
+      <c r="AL62" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM62" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN62" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A63" s="47">
         <v>872</v>
       </c>
@@ -14043,8 +15457,20 @@
       <c r="AJ63" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK63" s="47">
+        <v>715</v>
+      </c>
+      <c r="AL63" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM63" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="47">
         <v>880.7</v>
       </c>
@@ -14129,8 +15555,20 @@
       <c r="AJ64" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK64" s="47">
+        <v>719</v>
+      </c>
+      <c r="AL64" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM64" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN64" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="47">
         <v>881.8</v>
       </c>
@@ -14215,8 +15653,20 @@
       <c r="AJ65" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK65" s="47">
+        <v>724</v>
+      </c>
+      <c r="AL65" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM65" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN65" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A66" s="47">
         <v>883.5</v>
       </c>
@@ -14301,8 +15751,20 @@
       <c r="AJ66" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK66" s="47">
+        <v>710.5</v>
+      </c>
+      <c r="AL66" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM66" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN66" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" s="47">
         <v>888.5</v>
       </c>
@@ -14387,8 +15849,20 @@
       <c r="AJ67" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK67" s="47">
+        <v>779.5</v>
+      </c>
+      <c r="AL67" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM67" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" s="47">
         <v>898.1</v>
       </c>
@@ -14473,8 +15947,20 @@
       <c r="AJ68" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK68" s="47">
+        <v>789</v>
+      </c>
+      <c r="AL68" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM68" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A69" s="47">
         <v>900.6</v>
       </c>
@@ -14559,8 +16045,20 @@
       <c r="AJ69" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK69" s="47">
+        <v>786</v>
+      </c>
+      <c r="AL69" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM69" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A70" s="47">
         <v>907.4</v>
       </c>
@@ -14645,8 +16143,20 @@
       <c r="AJ70" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK70" s="47">
+        <v>794.8</v>
+      </c>
+      <c r="AL70" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM70" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="47">
         <v>916</v>
       </c>
@@ -14731,8 +16241,20 @@
       <c r="AJ71" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK71" s="47">
+        <v>835</v>
+      </c>
+      <c r="AL71" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM71" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN71" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="47">
         <v>1071</v>
       </c>
@@ -14793,8 +16315,20 @@
       <c r="AJ72" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK72" s="47">
+        <v>835</v>
+      </c>
+      <c r="AL72" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM72" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A73" s="47">
         <v>1117.2</v>
       </c>
@@ -14843,8 +16377,20 @@
       <c r="AJ73" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK73" s="47">
+        <v>838</v>
+      </c>
+      <c r="AL73" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM73" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN73" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="48">
         <v>1144</v>
       </c>
@@ -14893,8 +16439,20 @@
       <c r="AJ74" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK74" s="47">
+        <v>849.5</v>
+      </c>
+      <c r="AL74" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM74" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B75" s="53"/>
       <c r="Y75" s="47">
         <v>916</v>
@@ -14932,8 +16490,20 @@
       <c r="AJ75" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK75" s="47">
+        <v>851.5</v>
+      </c>
+      <c r="AL75" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM75" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN75" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B76" s="53"/>
       <c r="Y76" s="47">
         <v>1071</v>
@@ -14971,8 +16541,20 @@
       <c r="AJ76" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK76" s="47">
+        <v>880.7</v>
+      </c>
+      <c r="AL76" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM76" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
       <c r="Y77" s="47">
         <v>1117.2</v>
       </c>
@@ -15009,8 +16591,20 @@
       <c r="AJ77" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK77" s="47">
+        <v>872</v>
+      </c>
+      <c r="AL77" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM77" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN77" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Y78" s="48">
         <v>1144</v>
       </c>
@@ -15047,8 +16641,20 @@
       <c r="AJ78" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK78" s="47">
+        <v>881.8</v>
+      </c>
+      <c r="AL78" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM78" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN78" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.35">
       <c r="AG79" s="47">
         <v>907.4</v>
       </c>
@@ -15061,8 +16667,20 @@
       <c r="AJ79" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK79" s="47">
+        <v>883.5</v>
+      </c>
+      <c r="AL79" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM79" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN79" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
       <c r="AG80" s="47">
         <v>916</v>
       </c>
@@ -15075,8 +16693,20 @@
       <c r="AJ80" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="33:36" x14ac:dyDescent="0.35">
+      <c r="AK80" s="47">
+        <v>888.5</v>
+      </c>
+      <c r="AL80" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM80" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN80" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="33:40" x14ac:dyDescent="0.35">
       <c r="AG81" s="47">
         <v>1022</v>
       </c>
@@ -15089,8 +16719,20 @@
       <c r="AJ81" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="33:36" x14ac:dyDescent="0.35">
+      <c r="AK81" s="47">
+        <v>898.1</v>
+      </c>
+      <c r="AL81" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM81" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="33:40" x14ac:dyDescent="0.35">
       <c r="AG82" s="47">
         <v>1046</v>
       </c>
@@ -15103,8 +16745,20 @@
       <c r="AJ82" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="33:36" x14ac:dyDescent="0.35">
+      <c r="AK82" s="47">
+        <v>900.6</v>
+      </c>
+      <c r="AL82" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM82" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="33:40" x14ac:dyDescent="0.35">
       <c r="AG83" s="47">
         <v>1071</v>
       </c>
@@ -15117,8 +16771,20 @@
       <c r="AJ83" s="33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="33:36" x14ac:dyDescent="0.35">
+      <c r="AK83" s="47">
+        <v>907.4</v>
+      </c>
+      <c r="AL83" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM83" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="33:40" x14ac:dyDescent="0.35">
       <c r="AG84" s="47">
         <v>1117.2</v>
       </c>
@@ -15131,8 +16797,20 @@
       <c r="AJ84" s="32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="33:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK84" s="47">
+        <v>916</v>
+      </c>
+      <c r="AL84" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM84" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN84" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="33:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AG85" s="48">
         <v>1144</v>
       </c>
@@ -15145,18 +16823,87 @@
       <c r="AJ85" s="32" t="b">
         <v>0</v>
       </c>
+      <c r="AK85" s="47">
+        <v>1022</v>
+      </c>
+      <c r="AL85" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM85" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN85" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="33:40" x14ac:dyDescent="0.35">
+      <c r="AK86" s="47">
+        <v>1046</v>
+      </c>
+      <c r="AL86" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM86" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN86" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="33:40" x14ac:dyDescent="0.35">
+      <c r="AK87" s="47">
+        <v>1071</v>
+      </c>
+      <c r="AL87" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM87" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN87" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="33:40" x14ac:dyDescent="0.35">
+      <c r="AK88" s="47">
+        <v>1117.2</v>
+      </c>
+      <c r="AL88" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM88" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN88" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="33:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK89" s="48">
+        <v>1144</v>
+      </c>
+      <c r="AL89" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM89" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN89" s="32" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="U2:X2"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="U2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15176,8 +16923,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="B3" s="141" t="s">
-        <v>263</v>
+      <c r="B3" s="131" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -15189,18 +16936,18 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="142">
+      <c r="C6" s="132">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="142">
+      <c r="C7" s="132">
         <v>2</v>
       </c>
     </row>
